--- a/人力行政中心.xlsx
+++ b/人力行政中心.xlsx
@@ -1,51 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhs/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="18960" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="345" yWindow="465" windowWidth="18960" windowHeight="16440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="招聘部" sheetId="1" r:id="rId1"/>
     <sheet name="行政部" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="208">
   <si>
     <t>序号</t>
     <rPh sb="0" eb="1">
       <t>xu'hao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>流程</t>
     <rPh sb="0" eb="1">
       <t>liu'cheng</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>字段</t>
     <rPh sb="0" eb="1">
       <t>zi'duan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>字段说明</t>
@@ -55,7 +45,7 @@
     <rPh sb="2" eb="3">
       <t>shuo'm</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>库表字段</t>
@@ -65,7 +55,7 @@
     <rPh sb="2" eb="3">
       <t>zi'duan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>字段类型</t>
@@ -75,7 +65,7 @@
     <rPh sb="2" eb="3">
       <t>lei'xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>提供人</t>
@@ -85,51 +75,51 @@
     <rPh sb="2" eb="3">
       <t>ren</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>收集人</t>
     <rPh sb="0" eb="1">
       <t>shou'ji're</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
       <t>ri'qi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A组</t>
     <rPh sb="1" eb="2">
       <t>zu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>候选人信息管理表</t>
@@ -145,14 +135,14 @@
     <rPh sb="7" eb="8">
       <t>biao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>专员</t>
     <rPh sb="0" eb="1">
       <t>zhuan'yuan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>邀约时间</t>
@@ -162,7 +152,7 @@
     <rPh sb="2" eb="3">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否面试</t>
@@ -172,7 +162,7 @@
     <rPh sb="2" eb="3">
       <t>mian'shi</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>面试日期</t>
@@ -182,42 +172,42 @@
     <rPh sb="2" eb="3">
       <t>ri'qi</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
     <rPh sb="0" eb="1">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
       <t>xing'ming</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
     <rPh sb="0" eb="1">
       <t>xing'bie</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>学历</t>
     <rPh sb="0" eb="1">
       <t>xue'li</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>学校</t>
     <rPh sb="0" eb="1">
       <t>xue'xiao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>目前公司</t>
@@ -227,7 +217,7 @@
     <rPh sb="2" eb="3">
       <t>gong'si</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>目前职位</t>
@@ -237,7 +227,7 @@
     <rPh sb="2" eb="3">
       <t>zhi'wei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>联系电话</t>
@@ -247,7 +237,7 @@
     <rPh sb="2" eb="3">
       <t>dian'hau</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>面试人</t>
@@ -257,7 +247,7 @@
     <rPh sb="2" eb="3">
       <t>ren</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>邮箱地址</t>
@@ -267,7 +257,7 @@
     <rPh sb="2" eb="3">
       <t>di'zhi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>应聘部门</t>
@@ -277,7 +267,7 @@
     <rPh sb="2" eb="3">
       <t>bu'men</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>面试评价</t>
@@ -287,14 +277,14 @@
     <rPh sb="2" eb="3">
       <t>ping'jia</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>结果</t>
     <rPh sb="0" eb="1">
       <t>jie'guo</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>原因类别</t>
@@ -304,7 +294,7 @@
     <rPh sb="2" eb="3">
       <t>lei'bie</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>原因说明</t>
@@ -314,14 +304,14 @@
     <rPh sb="2" eb="3">
       <t>shuo'ming</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>渠道</t>
     <rPh sb="0" eb="1">
       <t>qu'doa</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>入职表</t>
@@ -331,7 +321,7 @@
     <rPh sb="2" eb="3">
       <t>biao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一级部门</t>
@@ -341,7 +331,7 @@
     <rPh sb="2" eb="3">
       <t>bu'men</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>二级部门</t>
@@ -351,14 +341,14 @@
     <rPh sb="2" eb="3">
       <t>bu'men</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>职位</t>
     <rPh sb="0" eb="1">
       <t>zhi'wei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>入职日期</t>
@@ -368,7 +358,7 @@
     <rPh sb="2" eb="3">
       <t>ri'qi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>入职情况</t>
@@ -378,7 +368,7 @@
     <rPh sb="2" eb="3">
       <t>qing'kuang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>招聘渠道</t>
@@ -388,7 +378,7 @@
     <rPh sb="2" eb="3">
       <t>qu'dao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>放弃录用原因</t>
@@ -401,7 +391,7 @@
     <rPh sb="4" eb="5">
       <t>yuan'yin</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>招聘周报表</t>
@@ -414,7 +404,7 @@
     <rPh sb="4" eb="5">
       <t>biao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>专员姓名</t>
@@ -424,7 +414,7 @@
     <rPh sb="2" eb="3">
       <t>xing'ming</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>负责岗位</t>
@@ -434,7 +424,7 @@
     <rPh sb="2" eb="3">
       <t>gang'wei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>收到简历总数</t>
@@ -447,7 +437,7 @@
     <rPh sb="4" eb="5">
       <t>zong'shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>主动下载简历数</t>
@@ -463,7 +453,7 @@
     <rPh sb="6" eb="7">
       <t>shu'mu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>有效邀约人数</t>
@@ -476,7 +466,7 @@
     <rPh sb="4" eb="5">
       <t>ren'shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>实际到约人数</t>
@@ -492,7 +482,7 @@
     <rPh sb="4" eb="5">
       <t>ren'shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>参加复试人数</t>
@@ -505,7 +495,7 @@
     <rPh sb="4" eb="5">
       <t>ren'shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>入职人数</t>
@@ -515,14 +505,14 @@
     <rPh sb="2" eb="3">
       <t>ren'shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>待入职</t>
     <rPh sb="0" eb="1">
       <t>dai'ru'zhi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>入职台账表</t>
@@ -538,7 +528,7 @@
     <rPh sb="4" eb="5">
       <t>biao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>放弃录用原因</t>
@@ -551,7 +541,7 @@
     <rPh sb="4" eb="5">
       <t>yuan'yin</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>招聘专员</t>
@@ -561,7 +551,7 @@
     <rPh sb="2" eb="3">
       <t>zhuan'yuan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电话安装统计台账</t>
@@ -577,14 +567,14 @@
     <rPh sb="6" eb="7">
       <t>tai'zhang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>部门</t>
     <rPh sb="0" eb="1">
       <t>bu'men</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电话供应商</t>
@@ -594,7 +584,7 @@
     <rPh sb="2" eb="3">
       <t>gong'ying'shang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>端口数</t>
@@ -604,7 +594,7 @@
     <rPh sb="2" eb="3">
       <t>shu'ju</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>司若兰</t>
@@ -614,7 +604,7 @@
     <rPh sb="2" eb="3">
       <t>lan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>缴费方式</t>
@@ -624,7 +614,7 @@
     <rPh sb="2" eb="3">
       <t>fang'shi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>报装日期</t>
@@ -634,14 +624,14 @@
     <rPh sb="2" eb="3">
       <t>ri'qi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>月租</t>
     <rPh sb="0" eb="1">
       <t>yue'zu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>报装人</t>
@@ -651,7 +641,7 @@
     <rPh sb="2" eb="3">
       <t>r'ne</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>报装费</t>
@@ -661,7 +651,7 @@
     <rPh sb="2" eb="3">
       <t>fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>资费标准</t>
@@ -671,7 +661,7 @@
     <rPh sb="2" eb="3">
       <t>biao'zhun</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>座机费用</t>
@@ -681,7 +671,7 @@
     <rPh sb="2" eb="3">
       <t>fei'yong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>有无合同</t>
@@ -691,7 +681,7 @@
     <rPh sb="2" eb="3">
       <t>he'to'g</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>有无发票</t>
@@ -704,7 +694,7 @@
     <rPh sb="2" eb="3">
       <t>fa'piao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>离职人数</t>
@@ -714,7 +704,7 @@
     <rPh sb="2" eb="3">
       <t>ren'shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>初期人数</t>
@@ -724,7 +714,7 @@
     <rPh sb="2" eb="3">
       <t>ren'shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>期末人数</t>
@@ -734,14 +724,14 @@
     <rPh sb="2" eb="3">
       <t>ren'shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>离职率</t>
     <rPh sb="0" eb="1">
       <t>li'zhi'lv</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>司领</t>
@@ -751,7 +741,7 @@
     <rPh sb="1" eb="2">
       <t>ling</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>离职原因</t>
@@ -761,7 +751,7 @@
     <rPh sb="2" eb="3">
       <t>yuan'yin</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>离职分析表</t>
@@ -774,7 +764,7 @@
     <rPh sb="4" eb="5">
       <t>biao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>人数数据表</t>
@@ -787,49 +777,49 @@
     <rPh sb="4" eb="5">
       <t>biao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>入职</t>
     <rPh sb="0" eb="1">
       <t>ru'zhi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>离职</t>
     <rPh sb="0" eb="1">
       <t>li'zhi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>调入</t>
     <rPh sb="0" eb="1">
       <t>diao'ru</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>调出</t>
     <rPh sb="0" eb="1">
       <t>diao'chu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>晋级</t>
     <rPh sb="0" eb="1">
       <t>jin'ji</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>降级</t>
     <rPh sb="0" eb="1">
       <t>jiang'ji</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>团队效果追踪表</t>
@@ -845,7 +835,7 @@
     <rPh sb="6" eb="7">
       <t>biao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>端口收到简历数</t>
@@ -861,7 +851,7 @@
     <rPh sb="6" eb="7">
       <t>shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>简历下载数</t>
@@ -874,7 +864,7 @@
     <rPh sb="4" eb="5">
       <t>shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>约面到访人数</t>
@@ -890,14 +880,14 @@
     <rPh sb="4" eb="5">
       <t>ren'shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>offer人数</t>
     <rPh sb="5" eb="6">
       <t>ren'shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>待入职人数</t>
@@ -907,7 +897,7 @@
     <rPh sb="3" eb="4">
       <t>ren'shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>招聘成本表</t>
@@ -920,7 +910,7 @@
     <rPh sb="4" eb="5">
       <t>biao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一级部7门</t>
@@ -930,7 +920,7 @@
     <rPh sb="2" eb="3">
       <t>b</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>累计招聘成本</t>
@@ -943,7 +933,7 @@
     <rPh sb="4" eb="5">
       <t>chegn'ben</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>渠道明细</t>
@@ -953,14 +943,14 @@
     <rPh sb="2" eb="3">
       <t>ming'xi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成本</t>
     <rPh sb="0" eb="1">
       <t>cheng'ben</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>人均成本</t>
@@ -970,16 +960,483 @@
     <rPh sb="2" eb="3">
       <t>cheng'ben</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力成本及效能表</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'be</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力总成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人均成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总业绩
+（仅大区）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人均效能
+（仅大区）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固浮比
+（仅大区）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制度项目管理表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制度名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进展情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划发布时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际发布时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经纪人证台账表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书有效日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持证人姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员归属门店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书使用门店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用起始日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换证书姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书退回日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政费用预算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>差旅费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务招待费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用品费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请部门/店面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌-型号-规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价（元）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量（个）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价（元）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="2">
+      <t>bei'z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低值易耗品领用登记表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门/店面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取人签字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存明细表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月入库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月出库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末结存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政投诉统计表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉受理机关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收通知日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受理完成日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域分属</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网公示登记编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政处罚结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产管理表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产原值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用年限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>折旧率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报废日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残值率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商管理表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作起始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效合同期间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结款方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月度采购量（件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月度合同额（元）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">供货安装及时率 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收达标率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协调合作率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维保返修率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力行政费用汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘相关费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
@@ -1028,8 +1485,37 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1042,8 +1528,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1341,150 +1832,319 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="4"/>
+    <cellStyle name="常规 3 2" xfId="5"/>
+    <cellStyle name="常规 4" xfId="6"/>
+    <cellStyle name="常规 5" xfId="7"/>
+    <cellStyle name="常规 6" xfId="8"/>
+    <cellStyle name="常规 7" xfId="9"/>
+    <cellStyle name="常规 8" xfId="10"/>
+    <cellStyle name="常规 9" xfId="1"/>
+    <cellStyle name="好 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1539,7 +2199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1574,7 +2234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1751,7 +2411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1761,16 +2421,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J22"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1802,11 +2462,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+    <row r="2" spans="1:10" ht="17.25">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1824,9 +2484,9 @@
       </c>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
+    <row r="3" spans="1:10" ht="17.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
@@ -1842,9 +2502,9 @@
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20"/>
+    <row r="4" spans="1:10" ht="17.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1860,9 +2520,9 @@
       </c>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
+    <row r="5" spans="1:10" ht="18" thickBot="1">
+      <c r="A5" s="38"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
@@ -1878,9 +2538,9 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
+    <row r="6" spans="1:10" ht="17.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
@@ -1896,9 +2556,9 @@
       </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
+    <row r="7" spans="1:10" ht="17.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
@@ -1914,303 +2574,303 @@
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="1:10" ht="17.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="8">
         <v>43333</v>
       </c>
-      <c r="J8" s="24"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="22" t="s">
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="8">
         <v>43333</v>
       </c>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="22" t="s">
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="8">
         <v>43333</v>
       </c>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="22" t="s">
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="8">
         <v>43333</v>
       </c>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="22" t="s">
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="8">
         <v>43333</v>
       </c>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="22" t="s">
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="8">
         <v>43333</v>
       </c>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="22" t="s">
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="8">
         <v>43333</v>
       </c>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="22" t="s">
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" ht="17.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="8">
         <v>43333</v>
       </c>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="22" t="s">
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" ht="17.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="8">
         <v>43333</v>
       </c>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="22" t="s">
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="8">
         <v>43333</v>
       </c>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="22" t="s">
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="8">
         <v>43333</v>
       </c>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="22" t="s">
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="8">
         <v>43333</v>
       </c>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="22" t="s">
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="8">
         <v>43333</v>
       </c>
-      <c r="J20" s="24"/>
-    </row>
-    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="22" t="s">
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" ht="17.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I21" s="8">
         <v>43333</v>
       </c>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="22" t="s">
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" thickBot="1">
+      <c r="A22" s="38"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="25">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="20">
         <v>43333</v>
       </c>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" ht="17.25">
       <c r="A23" s="41">
         <v>2</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="34">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="27">
         <v>43333</v>
       </c>
-      <c r="J23" s="35"/>
-    </row>
-    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" ht="17.25">
       <c r="A24" s="42"/>
-      <c r="B24" s="36"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="11" t="s">
         <v>37</v>
       </c>
@@ -2226,9 +2886,9 @@
       </c>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="17.25">
       <c r="A25" s="42"/>
-      <c r="B25" s="36"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="11" t="s">
         <v>38</v>
       </c>
@@ -2244,9 +2904,9 @@
       </c>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="17.25">
       <c r="A26" s="42"/>
-      <c r="B26" s="36"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="11" t="s">
         <v>39</v>
       </c>
@@ -2262,9 +2922,9 @@
       </c>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="17.25">
       <c r="A27" s="42"/>
-      <c r="B27" s="36"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="11" t="s">
         <v>40</v>
       </c>
@@ -2280,9 +2940,9 @@
       </c>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="17.25">
       <c r="A28" s="42"/>
-      <c r="B28" s="36"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="11" t="s">
         <v>41</v>
       </c>
@@ -2298,9 +2958,9 @@
       </c>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="17.25">
       <c r="A29" s="42"/>
-      <c r="B29" s="36"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="11" t="s">
         <v>42</v>
       </c>
@@ -2311,14 +2971,14 @@
       <c r="H29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="20">
         <v>43333</v>
       </c>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="33.75" thickBot="1">
       <c r="A30" s="43"/>
-      <c r="B30" s="37"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="13" t="s">
         <v>43</v>
       </c>
@@ -2326,39 +2986,39 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="31" t="s">
         <v>10</v>
       </c>
       <c r="I30" s="12">
         <v>43333</v>
       </c>
-      <c r="J30" s="45"/>
-    </row>
-    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="39">
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" spans="1:10" ht="17.25">
+      <c r="A31" s="33">
         <v>3</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="29" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="24">
         <v>43333</v>
       </c>
-      <c r="J31" s="40"/>
-    </row>
-    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="21"/>
+      <c r="J31" s="30"/>
+    </row>
+    <row r="32" spans="1:10" ht="17.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="15" t="s">
         <v>45</v>
       </c>
@@ -2372,11 +3032,11 @@
       <c r="I32" s="8">
         <v>43333</v>
       </c>
-      <c r="J32" s="38"/>
-    </row>
-    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
-      <c r="B33" s="21"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="1:10" ht="17.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="15" t="s">
         <v>46</v>
       </c>
@@ -2390,11 +3050,11 @@
       <c r="I33" s="8">
         <v>43333</v>
       </c>
-      <c r="J33" s="38"/>
-    </row>
-    <row r="34" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="21"/>
+      <c r="J33" s="29"/>
+    </row>
+    <row r="34" spans="1:10" ht="33">
+      <c r="A34" s="34"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="15" t="s">
         <v>47</v>
       </c>
@@ -2408,11 +3068,11 @@
       <c r="I34" s="8">
         <v>43333</v>
       </c>
-      <c r="J34" s="38"/>
-    </row>
-    <row r="35" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
-      <c r="B35" s="21"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="1:10" ht="33">
+      <c r="A35" s="34"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="15" t="s">
         <v>48</v>
       </c>
@@ -2426,11 +3086,11 @@
       <c r="I35" s="8">
         <v>43333</v>
       </c>
-      <c r="J35" s="38"/>
-    </row>
-    <row r="36" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
-      <c r="B36" s="21"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" ht="33">
+      <c r="A36" s="34"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="15" t="s">
         <v>49</v>
       </c>
@@ -2444,11 +3104,11 @@
       <c r="I36" s="8">
         <v>43333</v>
       </c>
-      <c r="J36" s="38"/>
-    </row>
-    <row r="37" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="21"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="1:10" ht="33">
+      <c r="A37" s="34"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="15" t="s">
         <v>50</v>
       </c>
@@ -2462,11 +3122,11 @@
       <c r="I37" s="8">
         <v>43333</v>
       </c>
-      <c r="J37" s="38"/>
-    </row>
-    <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
-      <c r="B38" s="21"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="38" spans="1:10" ht="33">
+      <c r="A38" s="34"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="15" t="s">
         <v>51</v>
       </c>
@@ -2480,11 +3140,11 @@
       <c r="I38" s="8">
         <v>43333</v>
       </c>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
-      <c r="B39" s="21"/>
+      <c r="J38" s="29"/>
+    </row>
+    <row r="39" spans="1:10" ht="17.25">
+      <c r="A39" s="34"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="15" t="s">
         <v>52</v>
       </c>
@@ -2498,11 +3158,11 @@
       <c r="I39" s="8">
         <v>43333</v>
       </c>
-      <c r="J39" s="38"/>
-    </row>
-    <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
-      <c r="B40" s="21"/>
+      <c r="J39" s="29"/>
+    </row>
+    <row r="40" spans="1:10" ht="17.25">
+      <c r="A40" s="34"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="15" t="s">
         <v>53</v>
       </c>
@@ -2516,11 +3176,11 @@
       <c r="I40" s="8">
         <v>43333</v>
       </c>
-      <c r="J40" s="38"/>
-    </row>
-    <row r="41" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
-      <c r="B41" s="21"/>
+      <c r="J40" s="29"/>
+    </row>
+    <row r="41" spans="1:10" ht="17.25">
+      <c r="A41" s="34"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="15" t="s">
         <v>9</v>
       </c>
@@ -2534,33 +3194,33 @@
       <c r="I41" s="8">
         <v>43333</v>
       </c>
-      <c r="J41" s="38"/>
-    </row>
-    <row r="42" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="39">
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:10" ht="17.25">
+      <c r="A42" s="33">
         <v>4</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="29" t="s">
+      <c r="D42" s="23"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="24">
         <v>43333</v>
       </c>
-      <c r="J42" s="40"/>
-    </row>
-    <row r="43" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
-      <c r="B43" s="21"/>
+      <c r="J42" s="30"/>
+    </row>
+    <row r="43" spans="1:10" ht="17.25">
+      <c r="A43" s="34"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="15" t="s">
         <v>21</v>
       </c>
@@ -2574,11 +3234,11 @@
       <c r="I43" s="8">
         <v>43333</v>
       </c>
-      <c r="J43" s="38"/>
-    </row>
-    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
-      <c r="B44" s="21"/>
+      <c r="J43" s="29"/>
+    </row>
+    <row r="44" spans="1:10" ht="17.25">
+      <c r="A44" s="34"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="15" t="s">
         <v>37</v>
       </c>
@@ -2592,11 +3252,11 @@
       <c r="I44" s="8">
         <v>43333</v>
       </c>
-      <c r="J44" s="38"/>
-    </row>
-    <row r="45" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
-      <c r="B45" s="21"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10" ht="17.25">
+      <c r="A45" s="34"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="15" t="s">
         <v>38</v>
       </c>
@@ -2610,11 +3270,11 @@
       <c r="I45" s="8">
         <v>43333</v>
       </c>
-      <c r="J45" s="38"/>
-    </row>
-    <row r="46" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
-      <c r="B46" s="21"/>
+      <c r="J45" s="29"/>
+    </row>
+    <row r="46" spans="1:10" ht="17.25">
+      <c r="A46" s="34"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="15" t="s">
         <v>39</v>
       </c>
@@ -2628,11 +3288,11 @@
       <c r="I46" s="8">
         <v>43333</v>
       </c>
-      <c r="J46" s="38"/>
-    </row>
-    <row r="47" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
-      <c r="B47" s="21"/>
+      <c r="J46" s="29"/>
+    </row>
+    <row r="47" spans="1:10" ht="17.25">
+      <c r="A47" s="34"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="15" t="s">
         <v>40</v>
       </c>
@@ -2646,11 +3306,11 @@
       <c r="I47" s="8">
         <v>43333</v>
       </c>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
-      <c r="B48" s="21"/>
+      <c r="J47" s="29"/>
+    </row>
+    <row r="48" spans="1:10" ht="17.25">
+      <c r="A48" s="34"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="15" t="s">
         <v>41</v>
       </c>
@@ -2664,11 +3324,11 @@
       <c r="I48" s="8">
         <v>43333</v>
       </c>
-      <c r="J48" s="38"/>
-    </row>
-    <row r="49" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
-      <c r="B49" s="21"/>
+      <c r="J48" s="29"/>
+    </row>
+    <row r="49" spans="1:10" ht="17.25">
+      <c r="A49" s="34"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="15" t="s">
         <v>42</v>
       </c>
@@ -2682,11 +3342,11 @@
       <c r="I49" s="8">
         <v>43333</v>
       </c>
-      <c r="J49" s="38"/>
-    </row>
-    <row r="50" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
-      <c r="B50" s="21"/>
+      <c r="J49" s="29"/>
+    </row>
+    <row r="50" spans="1:10" ht="33">
+      <c r="A50" s="34"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="15" t="s">
         <v>55</v>
       </c>
@@ -2700,11 +3360,11 @@
       <c r="I50" s="8">
         <v>43333</v>
       </c>
-      <c r="J50" s="38"/>
-    </row>
-    <row r="51" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="36"/>
-      <c r="B51" s="21"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="1:10" ht="17.25">
+      <c r="A51" s="34"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="15" t="s">
         <v>56</v>
       </c>
@@ -2718,11 +3378,11 @@
       <c r="I51" s="8">
         <v>43333</v>
       </c>
-      <c r="J51" s="38"/>
-    </row>
-    <row r="52" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="36"/>
-      <c r="B52" s="21"/>
+      <c r="J51" s="29"/>
+    </row>
+    <row r="52" spans="1:10" ht="17.25">
+      <c r="A52" s="34"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="15" t="s">
         <v>9</v>
       </c>
@@ -2736,7 +3396,7 @@
       <c r="I52" s="8">
         <v>43333</v>
       </c>
-      <c r="J52" s="38"/>
+      <c r="J52" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2749,7 +3409,7 @@
     <mergeCell ref="A31:A41"/>
     <mergeCell ref="B31:B41"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2757,19 +3417,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2801,11 +3466,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="36">
+    <row r="2" spans="1:10" ht="17.25">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="36" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2825,9 +3490,9 @@
       </c>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="21"/>
+    <row r="3" spans="1:10" ht="17.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="6" t="s">
         <v>59</v>
       </c>
@@ -2845,9 +3510,9 @@
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="21"/>
+    <row r="4" spans="1:10" ht="17.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="6" t="s">
         <v>60</v>
       </c>
@@ -2865,9 +3530,9 @@
       </c>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="21"/>
+    <row r="5" spans="1:10" ht="17.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="11" t="s">
         <v>62</v>
       </c>
@@ -2885,9 +3550,9 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="21"/>
+    <row r="6" spans="1:10" ht="17.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="11" t="s">
         <v>63</v>
       </c>
@@ -2905,9 +3570,9 @@
       </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="21"/>
+    <row r="7" spans="1:10" ht="17.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="11" t="s">
         <v>65</v>
       </c>
@@ -2925,9 +3590,9 @@
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="21"/>
+    <row r="8" spans="1:10" ht="17.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="11" t="s">
         <v>66</v>
       </c>
@@ -2945,9 +3610,9 @@
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="21"/>
+    <row r="9" spans="1:10" ht="17.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="11" t="s">
         <v>64</v>
       </c>
@@ -2965,9 +3630,9 @@
       </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="21"/>
+    <row r="10" spans="1:10" ht="17.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="11" t="s">
         <v>67</v>
       </c>
@@ -2985,9 +3650,9 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="21"/>
+    <row r="11" spans="1:10" ht="17.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="11" t="s">
         <v>68</v>
       </c>
@@ -3005,9 +3670,9 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="21"/>
+    <row r="12" spans="1:10" ht="17.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="11" t="s">
         <v>69</v>
       </c>
@@ -3025,9 +3690,9 @@
       </c>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="21"/>
+    <row r="13" spans="1:10" ht="17.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="11" t="s">
         <v>70</v>
       </c>
@@ -3045,11 +3710,11 @@
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="36">
+    <row r="14" spans="1:10" ht="17.25">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3069,9 +3734,9 @@
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="21"/>
+    <row r="15" spans="1:10" ht="17.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="6" t="s">
         <v>52</v>
       </c>
@@ -3089,9 +3754,9 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="21"/>
+    <row r="16" spans="1:10" ht="17.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="6" t="s">
         <v>71</v>
       </c>
@@ -3109,9 +3774,9 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="21"/>
+    <row r="17" spans="1:10" ht="17.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="6" t="s">
         <v>72</v>
       </c>
@@ -3129,9 +3794,9 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="21"/>
+    <row r="18" spans="1:10" ht="17.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="6" t="s">
         <v>73</v>
       </c>
@@ -3149,9 +3814,9 @@
       </c>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="21"/>
+    <row r="19" spans="1:10" ht="17.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="6" t="s">
         <v>74</v>
       </c>
@@ -3169,9 +3834,9 @@
       </c>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="21"/>
+    <row r="20" spans="1:10" ht="17.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="6" t="s">
         <v>75</v>
       </c>
@@ -3189,9 +3854,9 @@
       </c>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="21"/>
+    <row r="21" spans="1:10" ht="17.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="6" t="s">
         <v>71</v>
       </c>
@@ -3209,9 +3874,9 @@
       </c>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="21"/>
+    <row r="22" spans="1:10" ht="17.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="6" t="s">
         <v>76</v>
       </c>
@@ -3229,11 +3894,11 @@
       </c>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="36">
+    <row r="23" spans="1:10" ht="17.25">
+      <c r="A23" s="34">
         <v>3</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="36" t="s">
         <v>78</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -3253,9 +3918,9 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="21"/>
+    <row r="24" spans="1:10" ht="17.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="6" t="s">
         <v>79</v>
       </c>
@@ -3273,9 +3938,9 @@
       </c>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="21"/>
+    <row r="25" spans="1:10" ht="17.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="6" t="s">
         <v>80</v>
       </c>
@@ -3293,9 +3958,9 @@
       </c>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="21"/>
+    <row r="26" spans="1:10" ht="17.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="6" t="s">
         <v>81</v>
       </c>
@@ -3313,9 +3978,9 @@
       </c>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="21"/>
+    <row r="27" spans="1:10" ht="17.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="6" t="s">
         <v>82</v>
       </c>
@@ -3333,9 +3998,9 @@
       </c>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="21"/>
+    <row r="28" spans="1:10" ht="17.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="6" t="s">
         <v>83</v>
       </c>
@@ -3353,9 +4018,9 @@
       </c>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="21"/>
+    <row r="29" spans="1:10" ht="17.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="6" t="s">
         <v>84</v>
       </c>
@@ -3373,11 +4038,11 @@
       </c>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="36">
+    <row r="30" spans="1:10" ht="17.25">
+      <c r="A30" s="34">
         <v>4</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="36" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -3397,9 +4062,9 @@
       </c>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="21"/>
+    <row r="31" spans="1:10" ht="17.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="6" t="s">
         <v>86</v>
       </c>
@@ -3417,9 +4082,9 @@
       </c>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="21"/>
+    <row r="32" spans="1:10" ht="17.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="6" t="s">
         <v>87</v>
       </c>
@@ -3437,9 +4102,9 @@
       </c>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
-      <c r="B33" s="21"/>
+    <row r="33" spans="1:10" ht="17.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="6" t="s">
         <v>49</v>
       </c>
@@ -3457,9 +4122,9 @@
       </c>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="21"/>
+    <row r="34" spans="1:10" ht="17.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="6" t="s">
         <v>88</v>
       </c>
@@ -3477,9 +4142,9 @@
       </c>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
-      <c r="B35" s="21"/>
+    <row r="35" spans="1:10" ht="17.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="6" t="s">
         <v>89</v>
       </c>
@@ -3497,9 +4162,9 @@
       </c>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
-      <c r="B36" s="21"/>
+    <row r="36" spans="1:10" ht="17.25">
+      <c r="A36" s="34"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="6" t="s">
         <v>52</v>
       </c>
@@ -3517,9 +4182,9 @@
       </c>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="21"/>
+    <row r="37" spans="1:10" ht="17.25">
+      <c r="A37" s="34"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="6" t="s">
         <v>90</v>
       </c>
@@ -3537,11 +4202,11 @@
       </c>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="36">
-        <v>4</v>
-      </c>
-      <c r="B38" s="21" t="s">
+    <row r="38" spans="1:10" ht="17.25">
+      <c r="A38" s="34">
+        <v>5</v>
+      </c>
+      <c r="B38" s="36" t="s">
         <v>91</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -3561,9 +4226,9 @@
       </c>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
-      <c r="B39" s="21"/>
+    <row r="39" spans="1:10" ht="17.25">
+      <c r="A39" s="34"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="6" t="s">
         <v>93</v>
       </c>
@@ -3581,9 +4246,9 @@
       </c>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
-      <c r="B40" s="21"/>
+    <row r="40" spans="1:10" ht="17.25">
+      <c r="A40" s="34"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="6" t="s">
         <v>52</v>
       </c>
@@ -3601,9 +4266,9 @@
       </c>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
-      <c r="B41" s="21"/>
+    <row r="41" spans="1:10" ht="17.25">
+      <c r="A41" s="34"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="6" t="s">
         <v>94</v>
       </c>
@@ -3621,9 +4286,9 @@
       </c>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
-      <c r="B42" s="21"/>
+    <row r="42" spans="1:10" ht="17.25">
+      <c r="A42" s="34"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="6" t="s">
         <v>95</v>
       </c>
@@ -3641,9 +4306,9 @@
       </c>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
-      <c r="B43" s="21"/>
+    <row r="43" spans="1:10" ht="17.25">
+      <c r="A43" s="34"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="6" t="s">
         <v>52</v>
       </c>
@@ -3661,9 +4326,9 @@
       </c>
       <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
-      <c r="B44" s="21"/>
+    <row r="44" spans="1:10" ht="17.25">
+      <c r="A44" s="34"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="6" t="s">
         <v>96</v>
       </c>
@@ -3681,20 +4346,2619 @@
       </c>
       <c r="J44" s="9"/>
     </row>
+    <row r="45" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A45" s="48">
+        <v>6</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:10" ht="17.25">
+      <c r="A46" s="49"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:10" ht="17.25">
+      <c r="A47" s="49"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" ht="17.25">
+      <c r="A48" s="49"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" ht="17.25">
+      <c r="A49" s="49"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" ht="17.25">
+      <c r="A50" s="49"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" ht="17.25">
+      <c r="A51" s="49"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A52" s="49"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A53" s="48">
+        <v>7</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A54" s="49"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A55" s="49"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A56" s="49"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A57" s="49"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A58" s="49"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="1:10" ht="17.25">
+      <c r="A59" s="49"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" spans="1:10" ht="17.25">
+      <c r="A60" s="49"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" spans="1:10" ht="17.25">
+      <c r="A61" s="49"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J61" s="9"/>
+    </row>
+    <row r="62" spans="1:10" ht="17.25">
+      <c r="A62" s="49"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" spans="1:10" ht="17.25">
+      <c r="A63" s="49"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J63" s="9"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.25">
+      <c r="A64" s="49"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J64" s="9"/>
+    </row>
+    <row r="65" spans="1:10" ht="17.25">
+      <c r="A65" s="49"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J65" s="9"/>
+    </row>
+    <row r="66" spans="1:10" ht="17.25">
+      <c r="A66" s="48">
+        <v>8</v>
+      </c>
+      <c r="B66" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J66" s="9"/>
+    </row>
+    <row r="67" spans="1:10" ht="17.25">
+      <c r="A67" s="49"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J67" s="9"/>
+    </row>
+    <row r="68" spans="1:10" ht="17.25">
+      <c r="A68" s="49"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J68" s="9"/>
+    </row>
+    <row r="69" spans="1:10" ht="17.25">
+      <c r="A69" s="49"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J69" s="9"/>
+    </row>
+    <row r="70" spans="1:10" ht="17.25">
+      <c r="A70" s="49"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J70" s="9"/>
+    </row>
+    <row r="71" spans="1:10" ht="17.25">
+      <c r="A71" s="49"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J71" s="9"/>
+    </row>
+    <row r="72" spans="1:10" ht="17.25">
+      <c r="A72" s="49"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J72" s="9"/>
+    </row>
+    <row r="73" spans="1:10" ht="17.25">
+      <c r="A73" s="49"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J73" s="9"/>
+    </row>
+    <row r="74" spans="1:10" ht="17.25">
+      <c r="A74" s="49"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J74" s="9"/>
+    </row>
+    <row r="75" spans="1:10" ht="17.25">
+      <c r="A75" s="49"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J75" s="9"/>
+    </row>
+    <row r="76" spans="1:10" ht="17.25">
+      <c r="A76" s="49"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J76" s="9"/>
+    </row>
+    <row r="77" spans="1:10" ht="17.25">
+      <c r="A77" s="48">
+        <v>9</v>
+      </c>
+      <c r="B77" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J77" s="9"/>
+    </row>
+    <row r="78" spans="1:10" ht="17.25">
+      <c r="A78" s="49"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J78" s="9"/>
+    </row>
+    <row r="79" spans="1:10" ht="17.25">
+      <c r="A79" s="49"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J79" s="9"/>
+    </row>
+    <row r="80" spans="1:10" ht="17.25">
+      <c r="A80" s="49"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J80" s="9"/>
+    </row>
+    <row r="81" spans="1:10" ht="17.25">
+      <c r="A81" s="49"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J81" s="9"/>
+    </row>
+    <row r="82" spans="1:10" ht="17.25">
+      <c r="A82" s="49"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J82" s="9"/>
+    </row>
+    <row r="83" spans="1:10" ht="17.25">
+      <c r="A83" s="49"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J83" s="9"/>
+    </row>
+    <row r="84" spans="1:10" ht="17.25">
+      <c r="A84" s="48">
+        <v>10</v>
+      </c>
+      <c r="B84" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J84" s="9"/>
+    </row>
+    <row r="85" spans="1:10" ht="17.25">
+      <c r="A85" s="49"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J85" s="9"/>
+    </row>
+    <row r="86" spans="1:10" ht="17.25">
+      <c r="A86" s="49"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J86" s="9"/>
+    </row>
+    <row r="87" spans="1:10" ht="17.25">
+      <c r="A87" s="49"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J87" s="9"/>
+    </row>
+    <row r="88" spans="1:10" ht="17.25">
+      <c r="A88" s="49"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J88" s="9"/>
+    </row>
+    <row r="89" spans="1:10" ht="17.25">
+      <c r="A89" s="49"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J89" s="9"/>
+    </row>
+    <row r="90" spans="1:10" ht="17.25">
+      <c r="A90" s="49"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J90" s="9"/>
+    </row>
+    <row r="91" spans="1:10" ht="17.25">
+      <c r="A91" s="49"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J91" s="9"/>
+    </row>
+    <row r="92" spans="1:10" ht="17.25">
+      <c r="A92" s="48">
+        <v>11</v>
+      </c>
+      <c r="B92" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J92" s="9"/>
+    </row>
+    <row r="93" spans="1:10" ht="17.25">
+      <c r="A93" s="49"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J93" s="9"/>
+    </row>
+    <row r="94" spans="1:10" ht="17.25">
+      <c r="A94" s="49"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J94" s="9"/>
+    </row>
+    <row r="95" spans="1:10" ht="17.25">
+      <c r="A95" s="49"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J95" s="9"/>
+    </row>
+    <row r="96" spans="1:10" ht="17.25">
+      <c r="A96" s="49"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J96" s="9"/>
+    </row>
+    <row r="97" spans="1:10" ht="17.25">
+      <c r="A97" s="49"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J97" s="9"/>
+    </row>
+    <row r="98" spans="1:10" ht="17.25">
+      <c r="A98" s="49"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J98" s="9"/>
+    </row>
+    <row r="99" spans="1:10" ht="17.25">
+      <c r="A99" s="49"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J99" s="9"/>
+    </row>
+    <row r="100" spans="1:10" ht="17.25">
+      <c r="A100" s="51">
+        <v>12</v>
+      </c>
+      <c r="B100" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J100" s="9"/>
+    </row>
+    <row r="101" spans="1:10" ht="17.25">
+      <c r="A101" s="50"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J101" s="9"/>
+    </row>
+    <row r="102" spans="1:10" ht="17.25">
+      <c r="A102" s="50"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J102" s="9"/>
+    </row>
+    <row r="103" spans="1:10" ht="17.25">
+      <c r="A103" s="50"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J103" s="9"/>
+    </row>
+    <row r="104" spans="1:10" ht="17.25">
+      <c r="A104" s="50"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J104" s="9"/>
+    </row>
+    <row r="105" spans="1:10" ht="17.25">
+      <c r="A105" s="50"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J105" s="9"/>
+    </row>
+    <row r="106" spans="1:10" ht="17.25">
+      <c r="A106" s="50"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J106" s="9"/>
+    </row>
+    <row r="107" spans="1:10" ht="17.25">
+      <c r="A107" s="50"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J107" s="9"/>
+    </row>
+    <row r="108" spans="1:10" ht="17.25">
+      <c r="A108" s="50"/>
+      <c r="B108" s="47"/>
+      <c r="C108" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J108" s="9"/>
+    </row>
+    <row r="109" spans="1:10" ht="17.25">
+      <c r="A109" s="50"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J109" s="9"/>
+    </row>
+    <row r="110" spans="1:10" ht="17.25">
+      <c r="A110" s="50"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J110" s="9"/>
+    </row>
+    <row r="111" spans="1:10" ht="17.25">
+      <c r="A111" s="50"/>
+      <c r="B111" s="47"/>
+      <c r="C111" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J111" s="9"/>
+    </row>
+    <row r="112" spans="1:10" ht="17.25">
+      <c r="A112" s="51">
+        <v>13</v>
+      </c>
+      <c r="B112" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J112" s="9"/>
+    </row>
+    <row r="113" spans="1:10" ht="17.25">
+      <c r="A113" s="50"/>
+      <c r="B113" s="47"/>
+      <c r="C113" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J113" s="9"/>
+    </row>
+    <row r="114" spans="1:10" ht="17.25">
+      <c r="A114" s="50"/>
+      <c r="B114" s="47"/>
+      <c r="C114" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I114" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J114" s="9"/>
+    </row>
+    <row r="115" spans="1:10" ht="17.25">
+      <c r="A115" s="50"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J115" s="9"/>
+    </row>
+    <row r="116" spans="1:10" ht="17.25">
+      <c r="A116" s="50"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I116" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J116" s="9"/>
+    </row>
+    <row r="117" spans="1:10" ht="17.25">
+      <c r="A117" s="50"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I117" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J117" s="9"/>
+    </row>
+    <row r="118" spans="1:10" ht="17.25">
+      <c r="A118" s="50"/>
+      <c r="B118" s="47"/>
+      <c r="C118" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J118" s="9"/>
+    </row>
+    <row r="119" spans="1:10" ht="17.25">
+      <c r="A119" s="50"/>
+      <c r="B119" s="47"/>
+      <c r="C119" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J119" s="9"/>
+    </row>
+    <row r="120" spans="1:10" ht="17.25">
+      <c r="A120" s="50"/>
+      <c r="B120" s="47"/>
+      <c r="C120" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J120" s="9"/>
+    </row>
+    <row r="121" spans="1:10" ht="17.25">
+      <c r="A121" s="50"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J121" s="9"/>
+    </row>
+    <row r="122" spans="1:10" ht="17.25">
+      <c r="A122" s="50"/>
+      <c r="B122" s="47"/>
+      <c r="C122" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J122" s="9"/>
+    </row>
+    <row r="123" spans="1:10" ht="17.25">
+      <c r="A123" s="52">
+        <v>14</v>
+      </c>
+      <c r="B123" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I123" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J123" s="9"/>
+    </row>
+    <row r="124" spans="1:10" ht="17.25">
+      <c r="A124" s="53"/>
+      <c r="B124" s="47"/>
+      <c r="C124" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I124" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J124" s="9"/>
+    </row>
+    <row r="125" spans="1:10" ht="17.25">
+      <c r="A125" s="53"/>
+      <c r="B125" s="47"/>
+      <c r="C125" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J125" s="9"/>
+    </row>
+    <row r="126" spans="1:10" ht="17.25">
+      <c r="A126" s="53"/>
+      <c r="B126" s="47"/>
+      <c r="C126" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I126" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="1:10" ht="17.25">
+      <c r="A127" s="53"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I127" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="1:10" ht="17.25">
+      <c r="A128" s="53"/>
+      <c r="B128" s="47"/>
+      <c r="C128" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="1:10" ht="17.25">
+      <c r="A129" s="53"/>
+      <c r="B129" s="47"/>
+      <c r="C129" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J129" s="9"/>
+    </row>
+    <row r="130" spans="1:10" ht="17.25">
+      <c r="A130" s="53"/>
+      <c r="B130" s="47"/>
+      <c r="C130" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J130" s="9"/>
+    </row>
+    <row r="131" spans="1:10" ht="17.25">
+      <c r="A131" s="53"/>
+      <c r="B131" s="47"/>
+      <c r="C131" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I131" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J131" s="9"/>
+    </row>
+    <row r="132" spans="1:10" ht="17.25">
+      <c r="A132" s="53"/>
+      <c r="B132" s="47"/>
+      <c r="C132" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I132" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J132" s="9"/>
+    </row>
+    <row r="133" spans="1:10" ht="17.25">
+      <c r="A133" s="53"/>
+      <c r="B133" s="47"/>
+      <c r="C133" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J133" s="9"/>
+    </row>
+    <row r="134" spans="1:10" ht="17.25">
+      <c r="A134" s="53"/>
+      <c r="B134" s="47"/>
+      <c r="C134" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I134" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J134" s="9"/>
+    </row>
+    <row r="135" spans="1:10" ht="17.25">
+      <c r="A135" s="53"/>
+      <c r="B135" s="47"/>
+      <c r="C135" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I135" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J135" s="9"/>
+    </row>
+    <row r="136" spans="1:10" ht="17.25">
+      <c r="A136" s="53"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J136" s="9"/>
+    </row>
+    <row r="137" spans="1:10" ht="17.25">
+      <c r="A137" s="53"/>
+      <c r="B137" s="47"/>
+      <c r="C137" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I137" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J137" s="9"/>
+    </row>
+    <row r="138" spans="1:10" ht="17.25">
+      <c r="A138" s="53"/>
+      <c r="B138" s="47"/>
+      <c r="C138" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J138" s="9"/>
+    </row>
+    <row r="139" spans="1:10" ht="17.25">
+      <c r="A139" s="53"/>
+      <c r="B139" s="47"/>
+      <c r="C139" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I139" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J139" s="9"/>
+    </row>
+    <row r="140" spans="1:10" ht="17.25">
+      <c r="A140" s="53"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I140" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J140" s="9"/>
+    </row>
+    <row r="141" spans="1:10" ht="17.25">
+      <c r="A141" s="53"/>
+      <c r="B141" s="47"/>
+      <c r="C141" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J141" s="9"/>
+    </row>
+    <row r="142" spans="1:10" ht="17.25">
+      <c r="A142" s="53"/>
+      <c r="B142" s="47"/>
+      <c r="C142" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I142" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J142" s="9"/>
+    </row>
+    <row r="143" spans="1:10" ht="17.25">
+      <c r="A143" s="53"/>
+      <c r="B143" s="47"/>
+      <c r="C143" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I143" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J143" s="9"/>
+    </row>
+    <row r="144" spans="1:10" ht="17.25">
+      <c r="A144" s="52">
+        <v>15</v>
+      </c>
+      <c r="B144" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I144" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J144" s="9"/>
+    </row>
+    <row r="145" spans="1:10" ht="17.25">
+      <c r="A145" s="53"/>
+      <c r="B145" s="47"/>
+      <c r="C145" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I145" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J145" s="9"/>
+    </row>
+    <row r="146" spans="1:10" ht="17.25">
+      <c r="A146" s="53"/>
+      <c r="B146" s="47"/>
+      <c r="C146" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I146" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J146" s="9"/>
+    </row>
+    <row r="147" spans="1:10" ht="17.25">
+      <c r="A147" s="53"/>
+      <c r="B147" s="47"/>
+      <c r="C147" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I147" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J147" s="9"/>
+    </row>
+    <row r="148" spans="1:10" ht="17.25">
+      <c r="A148" s="53"/>
+      <c r="B148" s="47"/>
+      <c r="C148" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I148" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J148" s="9"/>
+    </row>
+    <row r="149" spans="1:10" ht="17.25">
+      <c r="A149" s="53"/>
+      <c r="B149" s="47"/>
+      <c r="C149" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I149" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J149" s="9"/>
+    </row>
+    <row r="150" spans="1:10" ht="17.25">
+      <c r="A150" s="53"/>
+      <c r="B150" s="47"/>
+      <c r="C150" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I150" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J150" s="9"/>
+    </row>
+    <row r="151" spans="1:10" ht="17.25">
+      <c r="A151" s="53"/>
+      <c r="B151" s="47"/>
+      <c r="C151" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I151" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J151" s="9"/>
+    </row>
+    <row r="152" spans="1:10" ht="17.25">
+      <c r="A152" s="53"/>
+      <c r="B152" s="47"/>
+      <c r="C152" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I152" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J152" s="9"/>
+    </row>
+    <row r="153" spans="1:10" ht="17.25">
+      <c r="A153" s="53"/>
+      <c r="B153" s="47"/>
+      <c r="C153" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I153" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J153" s="9"/>
+    </row>
+    <row r="154" spans="1:10" ht="17.25">
+      <c r="A154" s="53"/>
+      <c r="B154" s="47"/>
+      <c r="C154" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I154" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J154" s="9"/>
+    </row>
+    <row r="155" spans="1:10" ht="17.25">
+      <c r="A155" s="53"/>
+      <c r="B155" s="47"/>
+      <c r="C155" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I155" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J155" s="9"/>
+    </row>
+    <row r="156" spans="1:10" ht="17.25">
+      <c r="A156" s="53"/>
+      <c r="B156" s="47"/>
+      <c r="C156" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I156" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J156" s="9"/>
+    </row>
+    <row r="157" spans="1:10" ht="17.25">
+      <c r="A157" s="53"/>
+      <c r="B157" s="47"/>
+      <c r="C157" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I157" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J157" s="9"/>
+    </row>
+    <row r="158" spans="1:10" ht="17.25">
+      <c r="A158" s="52">
+        <v>16</v>
+      </c>
+      <c r="B158" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I158" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J158" s="9"/>
+    </row>
+    <row r="159" spans="1:10" ht="17.25">
+      <c r="A159" s="53"/>
+      <c r="B159" s="47"/>
+      <c r="C159" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I159" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J159" s="9"/>
+    </row>
+    <row r="160" spans="1:10" ht="17.25">
+      <c r="A160" s="53"/>
+      <c r="B160" s="47"/>
+      <c r="C160" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I160" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J160" s="9"/>
+    </row>
+    <row r="161" spans="1:10" ht="17.25">
+      <c r="A161" s="53"/>
+      <c r="B161" s="47"/>
+      <c r="C161" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I161" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J161" s="9"/>
+    </row>
+    <row r="162" spans="1:10" ht="17.25">
+      <c r="A162" s="53"/>
+      <c r="B162" s="47"/>
+      <c r="C162" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I162" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J162" s="9"/>
+    </row>
+    <row r="163" spans="1:10" ht="17.25">
+      <c r="A163" s="53"/>
+      <c r="B163" s="47"/>
+      <c r="C163" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I163" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J163" s="9"/>
+    </row>
+    <row r="164" spans="1:10" ht="17.25">
+      <c r="A164" s="53"/>
+      <c r="B164" s="47"/>
+      <c r="C164" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I164" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J164" s="9"/>
+    </row>
+    <row r="165" spans="1:10" ht="17.25">
+      <c r="A165" s="53"/>
+      <c r="B165" s="47"/>
+      <c r="C165" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I165" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J165" s="9"/>
+    </row>
+    <row r="166" spans="1:10" ht="17.25">
+      <c r="A166" s="53"/>
+      <c r="B166" s="47"/>
+      <c r="C166" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I166" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J166" s="9"/>
+    </row>
+    <row r="167" spans="1:10" ht="17.25">
+      <c r="A167" s="53"/>
+      <c r="B167" s="47"/>
+      <c r="C167" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I167" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J167" s="9"/>
+    </row>
+    <row r="168" spans="1:10" ht="17.25">
+      <c r="A168" s="53"/>
+      <c r="B168" s="47"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I168" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J168" s="9"/>
+    </row>
+    <row r="169" spans="1:10" ht="17.25">
+      <c r="A169" s="53"/>
+      <c r="B169" s="47"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I169" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J169" s="9"/>
+    </row>
+    <row r="170" spans="1:10" ht="17.25">
+      <c r="A170" s="53"/>
+      <c r="B170" s="47"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I170" s="8">
+        <v>43334</v>
+      </c>
+      <c r="J170" s="9"/>
+    </row>
+    <row r="171" spans="1:10" ht="18" thickBot="1">
+      <c r="A171" s="57"/>
+      <c r="B171" s="54"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="55"/>
+      <c r="E171" s="55"/>
+      <c r="F171" s="55"/>
+      <c r="G171" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H171" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I171" s="12">
+        <v>43334</v>
+      </c>
+      <c r="J171" s="56"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:B44"/>
+  <mergeCells count="32">
+    <mergeCell ref="A144:A157"/>
+    <mergeCell ref="B144:B157"/>
+    <mergeCell ref="A158:A171"/>
+    <mergeCell ref="B158:B171"/>
+    <mergeCell ref="A112:A122"/>
+    <mergeCell ref="B112:B122"/>
+    <mergeCell ref="B123:B143"/>
+    <mergeCell ref="A123:A143"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="B100:B111"/>
+    <mergeCell ref="A100:A111"/>
+    <mergeCell ref="A66:A76"/>
+    <mergeCell ref="B66:B76"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="B53:B65"/>
+    <mergeCell ref="A53:A65"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="A14:A22"/>
     <mergeCell ref="B14:B22"/>
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:B44"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>